--- a/platData.xlsx
+++ b/platData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>放映厅</t>
   </si>
@@ -41,7 +41,16 @@
     <t>取票情况</t>
   </si>
   <si>
-    <t>1</t>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>202310051644</t>
+  </si>
+  <si>
+    <t>THEWORLD</t>
   </si>
   <si>
     <t>84</t>
@@ -135,28 +144,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/platData.xlsx
+++ b/platData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>放映厅</t>
   </si>
@@ -41,16 +41,16 @@
     <t>取票情况</t>
   </si>
   <si>
-    <t>NULL</t>
+    <t>sc</t>
   </si>
   <si>
-    <t>10</t>
+    <t>150.0</t>
   </si>
   <si>
-    <t>202310051644</t>
+    <t>202310061800</t>
   </si>
   <si>
-    <t>THEWORLD</t>
+    <t>THE</t>
   </si>
   <si>
     <t>84</t>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>X,O,O,O,O,O,O,O,O,O,O,O O,O,O,O,O,O,O,O,O,O,O,O O,O,O,O,O,O,O,O,O,O,O,O O,O,O,O,O,O,O,O,O,O,O,O O,O,O,O,O,O,O,O,O,O,O,O O,O,O,O,O,O,O,O,O,O,O,O O,O,O,O,O,O,O,O,O,O,O,O</t>
+  </si>
+  <si>
+    <t>b7c92b0d-7141-4448-b1e2-a1a5c4e2b9cd,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null</t>
+  </si>
+  <si>
+    <t>hasBuied,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null</t>
+  </si>
+  <si>
+    <t>hasTaken,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null null,null,null,null,null,null,null,null,null,null,null,null</t>
   </si>
 </sst>
 </file>
@@ -156,16 +171,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
